--- a/FOF/data/股票基金收益率分解.xlsx
+++ b/FOF/data/股票基金收益率分解.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>基金名称</t>
   </si>
@@ -25,7 +25,7 @@
     <t>可选消费</t>
   </si>
   <si>
-    <t>必选消费</t>
+    <t>必选医药</t>
   </si>
   <si>
     <t>科技</t>
@@ -34,112 +34,292 @@
     <t>基金代码</t>
   </si>
   <si>
+    <t>159915.OF</t>
+  </si>
+  <si>
+    <t>001938.OF</t>
+  </si>
+  <si>
+    <t>450009.OF</t>
+  </si>
+  <si>
+    <t>000595.OF</t>
+  </si>
+  <si>
+    <t>110015.OF</t>
+  </si>
+  <si>
+    <t>519736.OF</t>
+  </si>
+  <si>
+    <t>161005.OF</t>
+  </si>
+  <si>
+    <t>159919.OF</t>
+  </si>
+  <si>
+    <t>169101.OF</t>
+  </si>
+  <si>
+    <t>002624.OF</t>
+  </si>
+  <si>
+    <t>160916.OF</t>
+  </si>
+  <si>
+    <t>519069.OF</t>
+  </si>
+  <si>
+    <t>000577.OF</t>
+  </si>
+  <si>
+    <t>163407.OF</t>
+  </si>
+  <si>
+    <t>100038.OF</t>
+  </si>
+  <si>
+    <t>001974.OF</t>
+  </si>
+  <si>
+    <t>000311.OF</t>
+  </si>
+  <si>
+    <t>000176.OF</t>
+  </si>
+  <si>
+    <t>000082.OF</t>
+  </si>
+  <si>
+    <t>070019.OF</t>
+  </si>
+  <si>
+    <t>159933.OF</t>
+  </si>
+  <si>
+    <t>000251.OF</t>
+  </si>
+  <si>
+    <t>005662.OF</t>
+  </si>
+  <si>
+    <t>040008.OF</t>
+  </si>
+  <si>
+    <t>159928.OF</t>
+  </si>
+  <si>
+    <t>110022.OF</t>
+  </si>
+  <si>
+    <t>162605.OF</t>
+  </si>
+  <si>
+    <t>006604.OF</t>
+  </si>
+  <si>
+    <t>000083.OF</t>
+  </si>
+  <si>
+    <t>110011.OF</t>
+  </si>
+  <si>
+    <t>001044.OF</t>
+  </si>
+  <si>
+    <t>070099.OF</t>
+  </si>
+  <si>
+    <t>512010.OF</t>
+  </si>
+  <si>
+    <t>110023.OF</t>
+  </si>
+  <si>
+    <t>001717.OF</t>
+  </si>
+  <si>
+    <t>003095.OF</t>
+  </si>
+  <si>
+    <t>000220.OF</t>
+  </si>
+  <si>
+    <t>005303.OF</t>
+  </si>
+  <si>
+    <t>000711.OF</t>
+  </si>
+  <si>
+    <t>159939.OF</t>
+  </si>
+  <si>
+    <t>001513.OF</t>
+  </si>
+  <si>
+    <t>001071.OF</t>
+  </si>
+  <si>
+    <t>003053.OF</t>
+  </si>
+  <si>
+    <t>519772.OF</t>
+  </si>
+  <si>
+    <t>519712.OF</t>
+  </si>
+  <si>
+    <t>001410.OF</t>
+  </si>
+  <si>
     <t>004450.OF</t>
   </si>
   <si>
-    <t>070021.OF</t>
-  </si>
-  <si>
-    <t>001637.OF</t>
-  </si>
-  <si>
-    <t>001811.OF</t>
-  </si>
-  <si>
-    <t>519697.OF</t>
-  </si>
-  <si>
-    <t>001071.OF</t>
-  </si>
-  <si>
-    <t>519712.OF</t>
-  </si>
-  <si>
-    <t>519772.OF</t>
-  </si>
-  <si>
-    <t>260101.OF</t>
-  </si>
-  <si>
-    <t>000978.OF</t>
-  </si>
-  <si>
-    <t>519700.OF</t>
-  </si>
-  <si>
-    <t>519736.OF</t>
-  </si>
-  <si>
-    <t>160918.OF</t>
-  </si>
-  <si>
-    <t>001256.OF</t>
-  </si>
-  <si>
-    <t>000742.OF</t>
-  </si>
-  <si>
-    <t>002229.OF</t>
-  </si>
-  <si>
-    <t>001018.OF</t>
-  </si>
-  <si>
-    <t>001513.OF</t>
+    <t>002168.OF</t>
+  </si>
+  <si>
+    <t>易方达创业板ETF</t>
+  </si>
+  <si>
+    <t>中欧时代先锋A</t>
+  </si>
+  <si>
+    <t>国富中小盘</t>
+  </si>
+  <si>
+    <t>嘉实泰和</t>
+  </si>
+  <si>
+    <t>易方达行业领先</t>
+  </si>
+  <si>
+    <t>交银新成长</t>
+  </si>
+  <si>
+    <t>富国天惠精选成长A</t>
+  </si>
+  <si>
+    <t>嘉实沪深300ETF</t>
+  </si>
+  <si>
+    <t>东方红睿丰</t>
+  </si>
+  <si>
+    <t>广发优企精选</t>
+  </si>
+  <si>
+    <t>大成优选</t>
+  </si>
+  <si>
+    <t>汇添富价值精选A</t>
+  </si>
+  <si>
+    <t>安信价值精选</t>
+  </si>
+  <si>
+    <t>兴全沪深300指数增强A</t>
+  </si>
+  <si>
+    <t>富国沪深300增强</t>
+  </si>
+  <si>
+    <t>景顺长城量化新动力</t>
+  </si>
+  <si>
+    <t>景顺长城沪深300增强</t>
+  </si>
+  <si>
+    <t>嘉实沪深300增强</t>
+  </si>
+  <si>
+    <t>嘉实研究阿尔法</t>
+  </si>
+  <si>
+    <t>嘉实价值优势</t>
+  </si>
+  <si>
+    <t>国投瑞银沪深300金融地产ETF</t>
+  </si>
+  <si>
+    <t>工银瑞信金融地产</t>
+  </si>
+  <si>
+    <t>嘉实金融精选A</t>
+  </si>
+  <si>
+    <t>华安策略优选</t>
+  </si>
+  <si>
+    <t>汇添富中证主要消费ETF</t>
+  </si>
+  <si>
+    <t>易方达消费行业</t>
+  </si>
+  <si>
+    <t>景顺长城鼎益</t>
+  </si>
+  <si>
+    <t>嘉实消费精选A</t>
+  </si>
+  <si>
+    <t>汇添富消费行业</t>
+  </si>
+  <si>
+    <t>易方达中小盘</t>
+  </si>
+  <si>
+    <t>嘉实新消费</t>
+  </si>
+  <si>
+    <t>嘉实优质企业</t>
+  </si>
+  <si>
+    <t>易方达沪深300医药卫生ETF</t>
+  </si>
+  <si>
+    <t>易方达医疗保健</t>
+  </si>
+  <si>
+    <t>工银瑞信前沿医疗</t>
+  </si>
+  <si>
+    <t>中欧医疗健康A</t>
+  </si>
+  <si>
+    <t>富国医疗保健行业</t>
+  </si>
+  <si>
+    <t>嘉实医药健康A</t>
+  </si>
+  <si>
+    <t>嘉实医疗保健</t>
+  </si>
+  <si>
+    <t>广发中证全指信息技术ETF</t>
+  </si>
+  <si>
+    <t>易方达信息产业</t>
+  </si>
+  <si>
+    <t>华安媒体互联网</t>
+  </si>
+  <si>
+    <t>嘉实文体娱乐A</t>
+  </si>
+  <si>
+    <t>交银新生活力</t>
+  </si>
+  <si>
+    <t>交银阿尔法</t>
+  </si>
+  <si>
+    <t>信达澳银新能源产业</t>
   </si>
   <si>
     <t>嘉实前沿科技</t>
   </si>
   <si>
-    <t>嘉实主题新动力</t>
-  </si>
-  <si>
-    <t>嘉实腾讯自选股大数据</t>
-  </si>
-  <si>
-    <t>中欧明睿新常态A</t>
-  </si>
-  <si>
-    <t>交银优势行业</t>
-  </si>
-  <si>
-    <t>华安媒体互联网</t>
-  </si>
-  <si>
-    <t>交银阿尔法</t>
-  </si>
-  <si>
-    <t>交银新生活力</t>
-  </si>
-  <si>
-    <t>景顺长城优选</t>
-  </si>
-  <si>
-    <t>景顺长城量化精选</t>
-  </si>
-  <si>
-    <t>交银主题优选</t>
-  </si>
-  <si>
-    <t>交银新成长</t>
-  </si>
-  <si>
-    <t>大成中小盘</t>
-  </si>
-  <si>
-    <t>泓德优选成长</t>
-  </si>
-  <si>
-    <t>国泰新经济</t>
-  </si>
-  <si>
-    <t>华夏经济转型</t>
-  </si>
-  <si>
-    <t>易方达新经济</t>
-  </si>
-  <si>
-    <t>易方达信息产业</t>
+    <t>嘉实智能汽车</t>
   </si>
 </sst>
 </file>
@@ -497,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,19 +708,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C2">
-        <v>0.09158640570510608</v>
+        <v>0.1003822570125725</v>
       </c>
       <c r="D2">
-        <v>0.1088247244510197</v>
+        <v>0.0906706961063163</v>
       </c>
       <c r="E2">
-        <v>0.4254287096170609</v>
+        <v>0.3039622538503226</v>
       </c>
       <c r="F2">
-        <v>0.3741601602268134</v>
+        <v>0.5049847930307886</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -548,19 +728,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>0.04235886824377435</v>
+        <v>0.2665499907295468</v>
       </c>
       <c r="D3">
-        <v>0.111525277632076</v>
+        <v>8.253489038045903e-18</v>
       </c>
       <c r="E3">
-        <v>0.1653659255069619</v>
+        <v>0.3500860915431632</v>
       </c>
       <c r="F3">
-        <v>0.6807499286171877</v>
+        <v>0.3833639177272899</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -568,19 +748,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>0.217324114575367</v>
+        <v>0.5616370145623932</v>
       </c>
       <c r="D4">
-        <v>0.2295847479105091</v>
+        <v>0.1428987927773827</v>
       </c>
       <c r="E4">
-        <v>0.2120816268695152</v>
+        <v>0.2954641926602241</v>
       </c>
       <c r="F4">
-        <v>0.3410095106446086</v>
+        <v>-7.657177843178875e-18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -588,19 +768,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C5">
-        <v>0.1707915909298282</v>
+        <v>-3.591419554186566e-18</v>
       </c>
       <c r="D5">
-        <v>0.07542358112016985</v>
+        <v>-1.108361955938737e-17</v>
       </c>
       <c r="E5">
-        <v>0.3014071100751909</v>
+        <v>0.7237707980882724</v>
       </c>
       <c r="F5">
-        <v>0.4523777178748111</v>
+        <v>0.2762292019117277</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -608,19 +788,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>0.1511790573516848</v>
+        <v>0.2970161915773994</v>
       </c>
       <c r="D6">
-        <v>0.1026736662083247</v>
+        <v>0.1766397838521431</v>
       </c>
       <c r="E6">
-        <v>0.4019384051147728</v>
+        <v>0.4354881728134566</v>
       </c>
       <c r="F6">
-        <v>0.3442088713252176</v>
+        <v>0.09085585175700081</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -628,19 +808,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>0.06326387978622811</v>
+        <v>0.5678929254595505</v>
       </c>
       <c r="D7">
-        <v>-5.204170427930421e-18</v>
+        <v>0.02265859823596299</v>
       </c>
       <c r="E7">
-        <v>0.1230211117381725</v>
+        <v>0.4094484763044866</v>
       </c>
       <c r="F7">
-        <v>0.8137150084755994</v>
+        <v>-1.575481281892999e-19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -648,19 +828,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>0.133592580954222</v>
+        <v>0.2855593650847748</v>
       </c>
       <c r="D8">
-        <v>0.05336014033981576</v>
+        <v>0.162332362437055</v>
       </c>
       <c r="E8">
-        <v>0.4121494576765132</v>
+        <v>0.4083725511464731</v>
       </c>
       <c r="F8">
-        <v>0.4008978210294489</v>
+        <v>0.1437357213316972</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -668,19 +848,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>0.1460194572692538</v>
+        <v>0.52902668988491</v>
       </c>
       <c r="D9">
-        <v>0.1827613585936221</v>
+        <v>0.2152522254784991</v>
       </c>
       <c r="E9">
-        <v>0.2960167130292829</v>
+        <v>0.1858872217013756</v>
       </c>
       <c r="F9">
-        <v>0.3752024711078413</v>
+        <v>0.06983386293521533</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -688,19 +868,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>0.1384879701755984</v>
+        <v>0.2754516576902226</v>
       </c>
       <c r="D10">
-        <v>0.3009534851004708</v>
+        <v>0.4304968509932375</v>
       </c>
       <c r="E10">
-        <v>0.308001928721883</v>
+        <v>0.09590079103065732</v>
       </c>
       <c r="F10">
-        <v>0.2525566160020478</v>
+        <v>0.1981507002858826</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -708,19 +888,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>0.2363205067931424</v>
+        <v>0.3940848220170882</v>
       </c>
       <c r="D11">
-        <v>0.21339811269653</v>
+        <v>0.08943390280724373</v>
       </c>
       <c r="E11">
-        <v>0.2318053855237789</v>
+        <v>0.5164812751756681</v>
       </c>
       <c r="F11">
-        <v>0.3184759949865487</v>
+        <v>1.616774138071646e-19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -728,19 +908,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C12">
-        <v>0.2882005238816159</v>
+        <v>0.4575650032688682</v>
       </c>
       <c r="D12">
-        <v>0.1915339253874991</v>
+        <v>0.2232314178598557</v>
       </c>
       <c r="E12">
-        <v>0.3106019515932331</v>
+        <v>0.3192035788712761</v>
       </c>
       <c r="F12">
-        <v>0.2096635991376519</v>
+        <v>6.405263147137019e-17</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -748,19 +928,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C13">
-        <v>0.4075539309065013</v>
+        <v>0.5617313929041824</v>
       </c>
       <c r="D13">
-        <v>0.1280082332691095</v>
+        <v>0.08134994405708668</v>
       </c>
       <c r="E13">
-        <v>0.4426612231097408</v>
+        <v>0.356918663038731</v>
       </c>
       <c r="F13">
-        <v>0.02177661271464821</v>
+        <v>-3.748967824547533e-18</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -768,19 +948,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C14">
-        <v>0.2812568192733026</v>
+        <v>0.4631432379209531</v>
       </c>
       <c r="D14">
-        <v>0.1394973561160861</v>
+        <v>0.410385370743555</v>
       </c>
       <c r="E14">
-        <v>0.2819217326100992</v>
+        <v>0.126471391335492</v>
       </c>
       <c r="F14">
-        <v>0.2973240920005121</v>
+        <v>6.607873428120248e-17</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -788,19 +968,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C15">
-        <v>0.2752653936116955</v>
+        <v>0.6237201786823848</v>
       </c>
       <c r="D15">
-        <v>0.2551076342237379</v>
+        <v>0.1671874368648837</v>
       </c>
       <c r="E15">
-        <v>0.1972352330162749</v>
+        <v>0.2090923844527315</v>
       </c>
       <c r="F15">
-        <v>0.2723917391482917</v>
+        <v>5.681897010181847e-18</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -808,19 +988,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C16">
-        <v>0.2247539403294683</v>
+        <v>0.578653249821926</v>
       </c>
       <c r="D16">
-        <v>0.006423976608143166</v>
+        <v>0.1733047404409775</v>
       </c>
       <c r="E16">
-        <v>0.2243634033717961</v>
+        <v>0.1621069642231195</v>
       </c>
       <c r="F16">
-        <v>0.5444586796905925</v>
+        <v>0.08593504551397697</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -828,19 +1008,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C17">
-        <v>0.1412944674520418</v>
+        <v>0.5331678974142356</v>
       </c>
       <c r="D17">
-        <v>0.1336415791437058</v>
+        <v>0.1438148051189874</v>
       </c>
       <c r="E17">
-        <v>0.2039018206129604</v>
+        <v>0.2550535575735294</v>
       </c>
       <c r="F17">
-        <v>0.521162132791292</v>
+        <v>0.06796373989324757</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -848,19 +1028,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C18">
-        <v>0.1600917039304663</v>
+        <v>0.5916026052509457</v>
       </c>
       <c r="D18">
-        <v>0.03431017366893808</v>
+        <v>0.1352182503642649</v>
       </c>
       <c r="E18">
-        <v>0.2308729302121617</v>
+        <v>0.2232958970783497</v>
       </c>
       <c r="F18">
-        <v>0.574725192188434</v>
+        <v>0.04988324730643983</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -868,19 +1048,619 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>0.5594636295326543</v>
+      </c>
+      <c r="D19">
+        <v>0.1942474180568476</v>
+      </c>
+      <c r="E19">
+        <v>0.2068977876531135</v>
+      </c>
+      <c r="F19">
+        <v>0.03939116475738482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20">
+        <v>0.5648544362020748</v>
+      </c>
+      <c r="D20">
+        <v>0.2206706670335472</v>
+      </c>
+      <c r="E20">
+        <v>0.09775681543797425</v>
+      </c>
+      <c r="F20">
+        <v>0.1167180813264038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <v>0.4476433774817507</v>
+      </c>
+      <c r="D21">
+        <v>0.1773444328580606</v>
+      </c>
+      <c r="E21">
+        <v>0.3750121896601887</v>
+      </c>
+      <c r="F21">
+        <v>3.914986282209376e-18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>0.9951945994188842</v>
+      </c>
+      <c r="D22">
+        <v>1.273937552670468e-17</v>
+      </c>
+      <c r="E22">
+        <v>0.004805400581115743</v>
+      </c>
+      <c r="F22">
+        <v>-1.599198204416119e-18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>0.7554088984260123</v>
+      </c>
+      <c r="D23">
+        <v>-1.919037845299343e-17</v>
+      </c>
+      <c r="E23">
+        <v>0.1883851298645522</v>
+      </c>
+      <c r="F23">
+        <v>0.05620597170943547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24">
+        <v>0.9380069527578114</v>
+      </c>
+      <c r="D24">
+        <v>-4.293440603042598e-17</v>
+      </c>
+      <c r="E24">
+        <v>0.06199304724218843</v>
+      </c>
+      <c r="F24">
+        <v>1.463672932855431e-18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25">
+        <v>0.6679005254406756</v>
+      </c>
+      <c r="D25">
+        <v>0.1448294888031163</v>
+      </c>
+      <c r="E25">
+        <v>0.1872699857562082</v>
+      </c>
+      <c r="F25">
+        <v>-1.99323793147882e-17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26">
+        <v>0.152712438985296</v>
+      </c>
+      <c r="D26">
+        <v>0.3022115933256546</v>
+      </c>
+      <c r="E26">
+        <v>0.5450759676890494</v>
+      </c>
+      <c r="F26">
+        <v>-3.608360355303319e-19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27">
+        <v>0.196740457975009</v>
+      </c>
+      <c r="D27">
+        <v>0.4078100727159313</v>
+      </c>
+      <c r="E27">
+        <v>0.3954494693090597</v>
+      </c>
+      <c r="F27">
+        <v>-9.185225280025633e-18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>0.2340742532280649</v>
+      </c>
+      <c r="D28">
+        <v>0.2797141913558406</v>
+      </c>
+      <c r="E28">
+        <v>0.4862115554160946</v>
+      </c>
+      <c r="F28">
+        <v>1.13061957799504e-17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29">
+        <v>0.4027148192440832</v>
+      </c>
+      <c r="D29">
+        <v>0.1371073888972536</v>
+      </c>
+      <c r="E29">
+        <v>0.4601777918586633</v>
+      </c>
+      <c r="F29">
+        <v>-4.758631097674659e-17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <v>0.2676968284319004</v>
+      </c>
+      <c r="D30">
+        <v>0.1814555641832089</v>
+      </c>
+      <c r="E30">
+        <v>0.5508476073848907</v>
+      </c>
+      <c r="F30">
+        <v>1.089453776758481e-17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31">
+        <v>0.2870014612718321</v>
+      </c>
+      <c r="D31">
+        <v>0.07663512701027334</v>
+      </c>
+      <c r="E31">
+        <v>0.6363634117178946</v>
+      </c>
+      <c r="F31">
+        <v>-1.978668964786046e-18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32">
+        <v>0.2511761869441338</v>
+      </c>
+      <c r="D32">
+        <v>0.1292019706902827</v>
+      </c>
+      <c r="E32">
+        <v>0.6196218423655835</v>
+      </c>
+      <c r="F32">
+        <v>-1.862456044422756e-17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33">
+        <v>0.1914987380465509</v>
+      </c>
+      <c r="D33">
+        <v>0.06700560604010244</v>
+      </c>
+      <c r="E33">
+        <v>0.7414956559133467</v>
+      </c>
+      <c r="F33">
+        <v>9.554531645028508e-19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34">
+        <v>-2.482823046898753e-17</v>
+      </c>
+      <c r="D34">
+        <v>1.387778780781446e-17</v>
+      </c>
+      <c r="E34">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F34">
+        <v>2.349104774690249e-18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35">
+        <v>-7.290657143089463e-18</v>
+      </c>
+      <c r="D35">
+        <v>4.85722573273506e-17</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>-4.979301071817287e-19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36">
+        <v>-7.241515986698746e-18</v>
+      </c>
+      <c r="D36">
+        <v>-2.775557561562891e-17</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3.462059849886307e-17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19">
-        <v>0.08740709132142743</v>
-      </c>
-      <c r="D19">
-        <v>-1.945126460074775e-17</v>
-      </c>
-      <c r="E19">
-        <v>0.1137670995027935</v>
-      </c>
-      <c r="F19">
-        <v>0.7988258091757791</v>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37">
+        <v>-1.669671358803917e-17</v>
+      </c>
+      <c r="D37">
+        <v>-1.387778780781446e-17</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>-1.987704753785113e-18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38">
+        <v>-2.185136246342173e-17</v>
+      </c>
+      <c r="D38">
+        <v>2.775557561562891e-17</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2.736389947153249e-18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39">
+        <v>2.620819113011083e-17</v>
+      </c>
+      <c r="D39">
+        <v>3.122502256758253e-17</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3.730958373448247e-17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40">
+        <v>-9.449542053651179e-19</v>
+      </c>
+      <c r="D40">
+        <v>-2.775557561562891e-17</v>
+      </c>
+      <c r="E40">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F40">
+        <v>2.640315342552659e-17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41">
+        <v>-1.761828918029857e-19</v>
+      </c>
+      <c r="D41">
+        <v>-1.734723475976807e-18</v>
+      </c>
+      <c r="E41">
+        <v>0.02376676389758022</v>
+      </c>
+      <c r="F41">
+        <v>0.9762332361024197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42">
+        <v>0.06747499249976684</v>
+      </c>
+      <c r="D42">
+        <v>2.264966100957999e-17</v>
+      </c>
+      <c r="E42">
+        <v>0.1361636058972658</v>
+      </c>
+      <c r="F42">
+        <v>0.7963614016029674</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43">
+        <v>-3.577867169202165e-17</v>
+      </c>
+      <c r="D43">
+        <v>4.241508983007503e-17</v>
+      </c>
+      <c r="E43">
+        <v>0.1238206943668465</v>
+      </c>
+      <c r="F43">
+        <v>0.8761793056331534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44">
+        <v>0.1579612998040842</v>
+      </c>
+      <c r="D44">
+        <v>0.03509606049847949</v>
+      </c>
+      <c r="E44">
+        <v>0.1470135883853948</v>
+      </c>
+      <c r="F44">
+        <v>0.6599290513120416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45">
+        <v>0.1803273927819352</v>
+      </c>
+      <c r="D45">
+        <v>0.0957410742002162</v>
+      </c>
+      <c r="E45">
+        <v>0.3468011355324068</v>
+      </c>
+      <c r="F45">
+        <v>0.3771303974854418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46">
+        <v>0.2086958147941411</v>
+      </c>
+      <c r="D46">
+        <v>0.07115599184422794</v>
+      </c>
+      <c r="E46">
+        <v>0.3211444151826759</v>
+      </c>
+      <c r="F46">
+        <v>0.399003778178955</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>-6.349358956007974e-18</v>
+      </c>
+      <c r="D47">
+        <v>4.744110139499638e-17</v>
+      </c>
+      <c r="E47">
+        <v>0.06998085206063548</v>
+      </c>
+      <c r="F47">
+        <v>0.9300191479393645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>0.1638268161362396</v>
+      </c>
+      <c r="D48">
+        <v>2.114194236346734e-18</v>
+      </c>
+      <c r="E48">
+        <v>0.4774012137715662</v>
+      </c>
+      <c r="F48">
+        <v>0.3587719700921942</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49">
+        <v>0.08186862569285643</v>
+      </c>
+      <c r="D49">
+        <v>0.2296779734142188</v>
+      </c>
+      <c r="E49">
+        <v>0.2679610847388428</v>
+      </c>
+      <c r="F49">
+        <v>0.4204923161540819</v>
       </c>
     </row>
   </sheetData>
